--- a/benchmark_results/cache_comparison.xlsx
+++ b/benchmark_results/cache_comparison.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johnmcguinness/Dropbox/Notre Dame/Senior/Fall_Semester/Cloud Computing/final_project/benchmark_results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4BF0143-8039-7C4A-9456-32E1302A9D27}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E84C39DF-526E-2942-B6B9-AB6DB5F85D67}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="460" windowWidth="25440" windowHeight="14440" activeTab="2" xr2:uid="{88D694E4-0DBB-B141-8A97-C39034C14D37}"/>
+    <workbookView xWindow="160" yWindow="460" windowWidth="25440" windowHeight="14440" xr2:uid="{88D694E4-0DBB-B141-8A97-C39034C14D37}"/>
   </bookViews>
   <sheets>
     <sheet name="GET" sheetId="1" r:id="rId1"/>
@@ -242,37 +242,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.62358599999999997</c:v>
+                  <c:v>8.5739999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.57067000000000001</c:v>
+                  <c:v>0.41661999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.97843999999999998</c:v>
+                  <c:v>0.20535500000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.2223980000000001</c:v>
+                  <c:v>0.32151000000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.4803729999999999</c:v>
+                  <c:v>0.32433800000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.7429479999999999</c:v>
+                  <c:v>0.40070099999999997</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.966216</c:v>
+                  <c:v>0.48106500000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.2647879999999998</c:v>
+                  <c:v>0.56154199999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.4470529999999999</c:v>
+                  <c:v>0.66739099999999996</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.7053479999999999</c:v>
+                  <c:v>0.77458499999999997</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.9430019999999999</c:v>
+                  <c:v>0.89853899999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1436,6 +1436,1008 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>MKDIR!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>caching</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>MKDIR!$A$2:$A$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="51"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>MKDIR!$B$2:$B$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="51"/>
+                <c:pt idx="0">
+                  <c:v>0.37916</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.27265600000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.47939399999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.59343299999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.70083700000000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.79766599999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.57385799999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.8761730000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.8327789999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.256238</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.4572799999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.89073400000000003</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.5987800000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.767585</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.8356710000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.9249559999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.1960729999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.155392</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.3439269999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.3976799999999998</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.4907430000000002</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.5429440000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.8068960000000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.835127</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.9640089999999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.1623299999999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.819501</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.2881900000000002</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.4917590000000001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.5277560000000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.7149269999999999</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.167303</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.9208560000000001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.980407</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4.1733180000000001</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4.2893049999999997</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2.5685799999999999</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4.4937370000000003</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>4.5900150000000002</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4.7124160000000002</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>5.0346970000000004</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2.880477</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>5.152971</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>5.2212540000000001</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>5.3236020000000002</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>5.6230219999999997</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3.1871109999999998</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>5.9698760000000002</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>5.8874519999999997</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>5.9993499999999997</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>6.1016170000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CA11-D848-9D99-DC4ACADDE16B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>MKDIR!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>no caching</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>MKDIR!$A$2:$A$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="51"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>MKDIR!$C$2:$C$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="51"/>
+                <c:pt idx="0">
+                  <c:v>0.40415299999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.34821999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.468833</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.543238</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.62121099999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.73474799999999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.82548299999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.1167560000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.115982</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.131424</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.3166869999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.383041</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.434337</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.6939230000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.7118</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.71733</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.8642510000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.0075129999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.1811210000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.1605590000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.337885</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.3649740000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.4744419999999998</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.63192</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.6215860000000002</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.9762059999999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.8448509999999998</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.9199929999999998</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.9983949999999999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.0630839999999999</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.3981590000000002</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.3530739999999999</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.7398509999999998</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.550119</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.664793</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4.188485</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.7892290000000002</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.9491040000000002</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>4.4017749999999998</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4.9821730000000004</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>5.6066700000000003</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>5.5608620000000002</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>5.4622080000000004</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>5.7774960000000002</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>6.3112370000000002</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>6.2408659999999996</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>5.0053559999999999</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>5.2296420000000001</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>5.6330299999999998</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>5.6982759999999999</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>5.3153610000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-CA11-D848-9D99-DC4ACADDE16B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="902580864"/>
+        <c:axId val="868891200"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="902580864"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="868891200"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="868891200"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="902580864"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1516,6 +2518,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -2529,6 +3571,522 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -2622,6 +4180,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>692150</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>184150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>311150</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9C5CF45-5E7D-4C4E-9543-73F8EE26B9D1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2929,8 +4523,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE57BD23-6D2B-8647-8317-5BD9423A7F76}">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M25" sqref="M25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O27" sqref="O27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2948,7 +4542,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.62358599999999997</v>
+        <v>8.5739999999999997E-2</v>
       </c>
       <c r="C2">
         <v>0.65372799999999998</v>
@@ -2959,7 +4553,7 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>0.57067000000000001</v>
+        <v>0.41661999999999999</v>
       </c>
       <c r="C3">
         <v>0.57059099999999996</v>
@@ -2970,7 +4564,7 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>0.97843999999999998</v>
+        <v>0.20535500000000001</v>
       </c>
       <c r="C4">
         <v>1.4086160000000001</v>
@@ -2981,7 +4575,7 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>1.2223980000000001</v>
+        <v>0.32151000000000002</v>
       </c>
       <c r="C5">
         <v>1.2844979999999999</v>
@@ -2992,7 +4586,7 @@
         <v>20</v>
       </c>
       <c r="B6">
-        <v>1.4803729999999999</v>
+        <v>0.32433800000000002</v>
       </c>
       <c r="C6">
         <v>1.8107819999999999</v>
@@ -3003,7 +4597,7 @@
         <v>25</v>
       </c>
       <c r="B7">
-        <v>1.7429479999999999</v>
+        <v>0.40070099999999997</v>
       </c>
       <c r="C7">
         <v>1.684404</v>
@@ -3014,7 +4608,7 @@
         <v>30</v>
       </c>
       <c r="B8">
-        <v>1.966216</v>
+        <v>0.48106500000000002</v>
       </c>
       <c r="C8">
         <v>1.9248529999999999</v>
@@ -3025,7 +4619,7 @@
         <v>35</v>
       </c>
       <c r="B9">
-        <v>2.2647879999999998</v>
+        <v>0.56154199999999999</v>
       </c>
       <c r="C9">
         <v>2.2356959999999999</v>
@@ -3036,7 +4630,7 @@
         <v>40</v>
       </c>
       <c r="B10">
-        <v>2.4470529999999999</v>
+        <v>0.66739099999999996</v>
       </c>
       <c r="C10">
         <v>2.9663659999999998</v>
@@ -3047,7 +4641,7 @@
         <v>45</v>
       </c>
       <c r="B11">
-        <v>2.7053479999999999</v>
+        <v>0.77458499999999997</v>
       </c>
       <c r="C11">
         <v>3.4101710000000001</v>
@@ -3058,7 +4652,7 @@
         <v>50</v>
       </c>
       <c r="B12">
-        <v>2.9430019999999999</v>
+        <v>0.89853899999999998</v>
       </c>
       <c r="C12">
         <v>3.3020480000000001</v>
@@ -3075,7 +4669,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C12"/>
+      <selection activeCell="B2" sqref="B2:B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3093,7 +4687,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.63883400000000001</v>
+        <v>0.65870799999999996</v>
       </c>
       <c r="C2">
         <v>0.75273699999999999</v>
@@ -3104,7 +4698,7 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>1.0635699999999999</v>
+        <v>1.0738970000000001</v>
       </c>
       <c r="C3">
         <v>1.0086250000000001</v>
@@ -3115,7 +4709,7 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>1.7340850000000001</v>
+        <v>1.7726230000000001</v>
       </c>
       <c r="C4">
         <v>1.6275200000000001</v>
@@ -3126,7 +4720,7 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>2.2356739999999999</v>
+        <v>2.4103780000000001</v>
       </c>
       <c r="C5">
         <v>2.1452110000000002</v>
@@ -3137,7 +4731,7 @@
         <v>20</v>
       </c>
       <c r="B6">
-        <v>2.9016380000000002</v>
+        <v>2.980785</v>
       </c>
       <c r="C6">
         <v>2.6098270000000001</v>
@@ -3148,7 +4742,7 @@
         <v>25</v>
       </c>
       <c r="B7">
-        <v>3.4162590000000002</v>
+        <v>3.508308</v>
       </c>
       <c r="C7">
         <v>3.0791430000000002</v>
@@ -3159,7 +4753,7 @@
         <v>30</v>
       </c>
       <c r="B8">
-        <v>3.957398</v>
+        <v>4.0897079999999999</v>
       </c>
       <c r="C8">
         <v>3.6173000000000002</v>
@@ -3170,7 +4764,7 @@
         <v>35</v>
       </c>
       <c r="B9">
-        <v>4.4732880000000002</v>
+        <v>4.8669560000000001</v>
       </c>
       <c r="C9">
         <v>4.1932039999999997</v>
@@ -3181,7 +4775,7 @@
         <v>40</v>
       </c>
       <c r="B10">
-        <v>5.0430849999999996</v>
+        <v>5.210896</v>
       </c>
       <c r="C10">
         <v>6.1253120000000001</v>
@@ -3192,7 +4786,7 @@
         <v>45</v>
       </c>
       <c r="B11">
-        <v>5.65008</v>
+        <v>5.898549</v>
       </c>
       <c r="C11">
         <v>6.1042620000000003</v>
@@ -3203,7 +4797,7 @@
         <v>50</v>
       </c>
       <c r="B12">
-        <v>6.267023</v>
+        <v>6.6315460000000002</v>
       </c>
       <c r="C12">
         <v>5.9522719999999998</v>
@@ -3218,8 +4812,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8FCBBC2-E203-D440-B782-AA5FC1B466AE}">
   <dimension ref="A1:C52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" activeCellId="1" sqref="A1:A52 C1:C52"/>
+    <sheetView topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3237,7 +4831,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.35007700000000003</v>
+        <v>0.37916</v>
       </c>
       <c r="C2">
         <v>0.40415299999999998</v>
@@ -3248,7 +4842,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.243008</v>
+        <v>0.27265600000000001</v>
       </c>
       <c r="C3">
         <v>0.34821999999999997</v>
@@ -3259,7 +4853,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.47295199999999998</v>
+        <v>0.47939399999999999</v>
       </c>
       <c r="C4">
         <v>0.468833</v>
@@ -3270,7 +4864,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.57317499999999999</v>
+        <v>0.59343299999999999</v>
       </c>
       <c r="C5">
         <v>0.543238</v>
@@ -3281,7 +4875,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.67094299999999996</v>
+        <v>0.70083700000000004</v>
       </c>
       <c r="C6">
         <v>0.62121099999999996</v>
@@ -3292,7 +4886,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.79747900000000005</v>
+        <v>0.79766599999999999</v>
       </c>
       <c r="C7">
         <v>0.73474799999999996</v>
@@ -3303,7 +4897,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.49829499999999999</v>
+        <v>0.57385799999999998</v>
       </c>
       <c r="C8">
         <v>0.82548299999999997</v>
@@ -3314,7 +4908,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.06263</v>
+        <v>1.8761730000000001</v>
       </c>
       <c r="C9">
         <v>1.1167560000000001</v>
@@ -3325,7 +4919,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.108511</v>
+        <v>2.8327789999999999</v>
       </c>
       <c r="C10">
         <v>1.115982</v>
@@ -3336,7 +4930,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.214547</v>
+        <v>1.256238</v>
       </c>
       <c r="C11">
         <v>1.131424</v>
@@ -3347,7 +4941,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.345091</v>
+        <v>1.4572799999999999</v>
       </c>
       <c r="C12">
         <v>1.3166869999999999</v>
@@ -3358,7 +4952,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.77235900000000002</v>
+        <v>0.89073400000000003</v>
       </c>
       <c r="C13">
         <v>1.383041</v>
@@ -3369,7 +4963,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.530159</v>
+        <v>1.5987800000000001</v>
       </c>
       <c r="C14">
         <v>1.434337</v>
@@ -3380,7 +4974,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.672204</v>
+        <v>1.767585</v>
       </c>
       <c r="C15">
         <v>1.6939230000000001</v>
@@ -3391,7 +4985,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.7648410000000001</v>
+        <v>1.8356710000000001</v>
       </c>
       <c r="C16">
         <v>1.7118</v>
@@ -3402,7 +4996,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.8481540000000001</v>
+        <v>1.9249559999999999</v>
       </c>
       <c r="C17">
         <v>1.71733</v>
@@ -3413,7 +5007,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.99290900000000004</v>
+        <v>1.1960729999999999</v>
       </c>
       <c r="C18">
         <v>1.8642510000000001</v>
@@ -3424,7 +5018,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.1262129999999999</v>
+        <v>2.155392</v>
       </c>
       <c r="C19">
         <v>2.0075129999999999</v>
@@ -3435,7 +5029,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.1676980000000001</v>
+        <v>2.3439269999999999</v>
       </c>
       <c r="C20">
         <v>2.1811210000000001</v>
@@ -3446,7 +5040,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.3080699999999998</v>
+        <v>2.3976799999999998</v>
       </c>
       <c r="C21">
         <v>2.1605590000000001</v>
@@ -3457,7 +5051,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.751252</v>
+        <v>2.4907430000000002</v>
       </c>
       <c r="C22">
         <v>2.337885</v>
@@ -3468,7 +5062,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.255738</v>
+        <v>1.5429440000000001</v>
       </c>
       <c r="C23">
         <v>2.3649740000000001</v>
@@ -3479,7 +5073,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.6204230000000002</v>
+        <v>2.8068960000000001</v>
       </c>
       <c r="C24">
         <v>2.4744419999999998</v>
@@ -3490,7 +5084,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.7704</v>
+        <v>2.835127</v>
       </c>
       <c r="C25">
         <v>2.63192</v>
@@ -3501,7 +5095,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>2.8378999999999999</v>
+        <v>2.9640089999999999</v>
       </c>
       <c r="C26">
         <v>2.6215860000000002</v>
@@ -3512,7 +5106,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>2.994319</v>
+        <v>3.1623299999999999</v>
       </c>
       <c r="C27">
         <v>2.9762059999999999</v>
@@ -3523,7 +5117,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>1.5196970000000001</v>
+        <v>1.819501</v>
       </c>
       <c r="C28">
         <v>2.8448509999999998</v>
@@ -3534,7 +5128,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>3.1545489999999998</v>
+        <v>3.2881900000000002</v>
       </c>
       <c r="C29">
         <v>2.9199929999999998</v>
@@ -3545,7 +5139,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>3.3488579999999999</v>
+        <v>3.4917590000000001</v>
       </c>
       <c r="C30">
         <v>2.9983949999999999</v>
@@ -3556,7 +5150,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>3.40646</v>
+        <v>3.5277560000000001</v>
       </c>
       <c r="C31">
         <v>3.0630839999999999</v>
@@ -3567,7 +5161,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>3.5851069999999998</v>
+        <v>3.7149269999999999</v>
       </c>
       <c r="C32">
         <v>3.3981590000000002</v>
@@ -3578,7 +5172,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>1.83778</v>
+        <v>2.167303</v>
       </c>
       <c r="C33">
         <v>3.3530739999999999</v>
@@ -3589,7 +5183,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>3.8380040000000002</v>
+        <v>3.9208560000000001</v>
       </c>
       <c r="C34">
         <v>3.7398509999999998</v>
@@ -3600,7 +5194,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>3.8053210000000002</v>
+        <v>3.980407</v>
       </c>
       <c r="C35">
         <v>3.550119</v>
@@ -3611,7 +5205,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>3.9526089999999998</v>
+        <v>4.1733180000000001</v>
       </c>
       <c r="C36">
         <v>3.664793</v>
@@ -3622,7 +5216,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>4.1572430000000002</v>
+        <v>4.2893049999999997</v>
       </c>
       <c r="C37">
         <v>4.188485</v>
@@ -3633,7 +5227,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>2.1145499999999999</v>
+        <v>2.5685799999999999</v>
       </c>
       <c r="C38">
         <v>3.7892290000000002</v>
@@ -3644,7 +5238,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>4.531574</v>
+        <v>4.4937370000000003</v>
       </c>
       <c r="C39">
         <v>3.9491040000000002</v>
@@ -3655,7 +5249,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>4.4307869999999996</v>
+        <v>4.5900150000000002</v>
       </c>
       <c r="C40">
         <v>4.4017749999999998</v>
@@ -3666,7 +5260,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>4.5522429999999998</v>
+        <v>4.7124160000000002</v>
       </c>
       <c r="C41">
         <v>4.9821730000000004</v>
@@ -3677,7 +5271,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>4.7085790000000003</v>
+        <v>5.0346970000000004</v>
       </c>
       <c r="C42">
         <v>5.6066700000000003</v>
@@ -3688,7 +5282,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>2.3661660000000002</v>
+        <v>2.880477</v>
       </c>
       <c r="C43">
         <v>5.5608620000000002</v>
@@ -3699,7 +5293,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>4.9355149999999997</v>
+        <v>5.152971</v>
       </c>
       <c r="C44">
         <v>5.4622080000000004</v>
@@ -3710,7 +5304,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>5.0138360000000004</v>
+        <v>5.2212540000000001</v>
       </c>
       <c r="C45">
         <v>5.7774960000000002</v>
@@ -3721,7 +5315,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>5.138649</v>
+        <v>5.3236020000000002</v>
       </c>
       <c r="C46">
         <v>6.3112370000000002</v>
@@ -3732,7 +5326,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>5.2144310000000003</v>
+        <v>5.6230219999999997</v>
       </c>
       <c r="C47">
         <v>6.2408659999999996</v>
@@ -3743,7 +5337,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>2.8157130000000001</v>
+        <v>3.1871109999999998</v>
       </c>
       <c r="C48">
         <v>5.0053559999999999</v>
@@ -3754,7 +5348,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>5.4289860000000001</v>
+        <v>5.9698760000000002</v>
       </c>
       <c r="C49">
         <v>5.2296420000000001</v>
@@ -3765,7 +5359,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>5.5894149999999998</v>
+        <v>5.8874519999999997</v>
       </c>
       <c r="C50">
         <v>5.6330299999999998</v>
@@ -3776,7 +5370,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>5.9012729999999998</v>
+        <v>5.9993499999999997</v>
       </c>
       <c r="C51">
         <v>5.6982759999999999</v>
@@ -3787,7 +5381,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>5.7630850000000002</v>
+        <v>6.1016170000000001</v>
       </c>
       <c r="C52">
         <v>5.3153610000000002</v>
